--- a/Assets/Resources/JSON/Ships.xlsx
+++ b/Assets/Resources/JSON/Ships.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!!!!!_____WORK\space\Space\Assets\Resources\JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A996AC08-0772-4336-AD8A-1BB0C88AEA1F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{421A7635-BE76-432D-8302-69CA943C8D51}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{1B710372-9CEA-4239-87F7-9DE52B7732A8}"/>
   </bookViews>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -45,13 +36,22 @@
     <t>three</t>
   </si>
   <si>
-    <t>cargo</t>
-  </si>
-  <si>
-    <t>dall</t>
-  </si>
-  <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>D:\!!!!!_____WORK\space\Space\Assets\Resources\JSON\ships.json</t>
+  </si>
+  <si>
+    <t>id : Integer</t>
+  </si>
+  <si>
+    <t>speed : Integer</t>
+  </si>
+  <si>
+    <t>cargo : Integer</t>
+  </si>
+  <si>
+    <t>name: String</t>
   </si>
 </sst>
 </file>
@@ -427,96 +427,91 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/JSON/Ships.xlsx
+++ b/Assets/Resources/JSON/Ships.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!!!!!_____WORK\space\Space\Assets\Resources\JSON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!!WORK\space\Space\Assets\Resources\JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421A7635-BE76-432D-8302-69CA943C8D51}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E3F5C5-1514-4590-B656-89DB06B2AE00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{1B710372-9CEA-4239-87F7-9DE52B7732A8}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>D:\!!!!!_____WORK\space\Space\Assets\Resources\JSON\ships.json</t>
-  </si>
-  <si>
     <t>id : Integer</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>name: String</t>
+  </si>
+  <si>
+    <t>D:\!!WORK\space\Space\Assets\Resources\JSON\ships.json</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,21 +441,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="D6">
         <v>110</v>
